--- a/biology/Médecine/Paul_Workman/Paul_Workman.xlsx
+++ b/biology/Médecine/Paul_Workman/Paul_Workman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Workman, né le 30 mars 1952, est un scientifique britannique connu pour son travail sur la découverte et le développement de nouveaux médicaments contre le cancer[1].
-Depuis 2016, Workman est professeur de pharmacologie et de thérapeutique et chef exécutif de l'Institut de Recherche sur le Cancer. Il a été précédemment à la tête du département de cancérologie du Cancer Research UK de 1997 à janvier 2016[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Workman, né le 30 mars 1952, est un scientifique britannique connu pour son travail sur la découverte et le développement de nouveaux médicaments contre le cancer.
+Depuis 2016, Workman est professeur de pharmacologie et de thérapeutique et chef exécutif de l'Institut de Recherche sur le Cancer. Il a été précédemment à la tête du département de cancérologie du Cancer Research UK de 1997 à janvier 2016,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Premières années</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Workman est né le 30 mars 1952 à Workington, en Angleterre[4]. Il a fait ses études à Workington County Grammar School, et a complété son Baccalauréat ès Sciences en Biochimie à l'Université de Leicester , et son doctorat en pharmacologie du cancer à l'Université de Leeds. Plus tard, il a été nommé docteur ès science à titre honorifique de l'Université de Leicester, en 2009.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Workman est né le 30 mars 1952 à Workington, en Angleterre. Il a fait ses études à Workington County Grammar School, et a complété son Baccalauréat ès Sciences en Biochimie à l'Université de Leicester , et son doctorat en pharmacologie du cancer à l'Université de Leeds. Plus tard, il a été nommé docteur ès science à titre honorifique de l'Université de Leicester, en 2009.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première partie de sa carrière (1976-90) a été consacrée à établir et diriger  le laboratoire de Pharmacologie et de Développement des Nouveaux Médicaments au Conseil de la Recherche Médicale's de Clinique de l'Unité d'Oncologie à l'Université de Cambridge, où il a développé de nouveaux traitements pour exploiter des cellules hypoxiques dans les tumeurs solides et découvert les enzymes impliquées dans l'activation de médicaments ciblés par les cellules hypoxiques[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première partie de sa carrière (1976-90) a été consacrée à établir et diriger  le laboratoire de Pharmacologie et de Développement des Nouveaux Médicaments au Conseil de la Recherche Médicale's de Clinique de l'Unité d'Oncologie à l'Université de Cambridge, où il a développé de nouveaux traitements pour exploiter des cellules hypoxiques dans les tumeurs solides et découvert les enzymes impliquées dans l'activation de médicaments ciblés par les cellules hypoxiques.
 </t>
         </is>
       </c>
